--- a/Hypothesis/hypo_pos_immi_inc_rate_balance.xlsx
+++ b/Hypothesis/hypo_pos_immi_inc_rate_balance.xlsx
@@ -1,31 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26207"/>
-  <workbookPr showInkAnnotation="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Xiangyu/Documents/git/495-datascience-trade-predict/Hypothesis/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14260" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13725"/>
   </bookViews>
   <sheets>
     <sheet name="hypo_pos_immi_inc_rate_balance" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>year</t>
   </si>
@@ -60,6 +50,21 @@
     <t>ANOVA</t>
   </si>
   <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
     <t>Regression</t>
   </si>
   <si>
@@ -69,43 +74,28 @@
     <t>Total</t>
   </si>
   <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95.0%</t>
+  </si>
+  <si>
+    <t>Upper 95.0%</t>
+  </si>
+  <si>
     <t>Intercept</t>
-  </si>
-  <si>
-    <t>df</t>
-  </si>
-  <si>
-    <t>SS</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Significance F</t>
-  </si>
-  <si>
-    <t>Coefficients</t>
-  </si>
-  <si>
-    <t>t Stat</t>
-  </si>
-  <si>
-    <t>P-value</t>
-  </si>
-  <si>
-    <t>Lower 95%</t>
-  </si>
-  <si>
-    <t>Upper 95%</t>
-  </si>
-  <si>
-    <t>Lower 95.0%</t>
-  </si>
-  <si>
-    <t>Upper 95.0%</t>
   </si>
   <si>
     <t>X Variable 1</t>
@@ -114,33 +104,368 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -149,55 +474,320 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color auto="1"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -239,7 +829,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -274,7 +864,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -449,843 +1039,837 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
         <v>1959</v>
       </c>
-      <c r="B2">
-        <v>-1.9733919046124799</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="2">
+        <v>-1.97339190461248</v>
+      </c>
+      <c r="C2" s="2">
         <v>3508</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
         <v>1960</v>
       </c>
-      <c r="B3">
-        <v>-0.16136935078331499</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="2">
+        <v>-0.161369350783315</v>
+      </c>
+      <c r="C3" s="2">
         <v>4195</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
         <v>1961</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>-1.39537207872078</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>3370</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
         <v>1962</v>
       </c>
-      <c r="B5">
-        <v>-0.39160023332685201</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="2">
+        <v>-0.391600233326852</v>
+      </c>
+      <c r="C5" s="2">
         <v>4210</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
         <v>1963</v>
       </c>
-      <c r="B6">
-        <v>2.8171939916906301</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="2">
+        <v>2.81719399169063</v>
+      </c>
+      <c r="C6" s="2">
         <v>6022</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
         <v>1964</v>
       </c>
-      <c r="B7">
-        <v>-0.33564969859343602</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="2">
+        <v>-0.335649698593436</v>
+      </c>
+      <c r="C7" s="2">
         <v>4664</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
         <v>1965</v>
       </c>
-      <c r="B8">
-        <v>-0.84373030875866395</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="2">
+        <v>-0.843730308758664</v>
+      </c>
+      <c r="C8" s="2">
         <v>2939</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
         <v>1966</v>
       </c>
-      <c r="B9">
-        <v>-2.4862903225806399</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="2">
+        <v>-2.48629032258064</v>
+      </c>
+      <c r="C9" s="2">
         <v>2604</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
         <v>1967</v>
       </c>
-      <c r="B10">
-        <v>-2.1806836679327102</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="2">
+        <v>-2.18068366793271</v>
+      </c>
+      <c r="C10" s="2">
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
         <v>1968</v>
       </c>
-      <c r="B11">
-        <v>0.84604779411764697</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="2">
+        <v>0.846047794117647</v>
+      </c>
+      <c r="C11" s="2">
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
         <v>1969</v>
       </c>
-      <c r="B12">
-        <v>-3.9101319392581502</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="2">
+        <v>-3.91013193925815</v>
+      </c>
+      <c r="C12" s="2">
         <v>2254</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
         <v>1970</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>-1.17040205303678</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>-1302</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
         <v>1971</v>
       </c>
-      <c r="B14">
-        <v>-4.9196787148594296</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="2">
+        <v>-4.91967871485943</v>
+      </c>
+      <c r="C14" s="2">
         <v>-5443</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
         <v>1972</v>
       </c>
-      <c r="B15">
-        <v>-0.46349897540983598</v>
-      </c>
-      <c r="C15">
+      <c r="B15" s="2">
+        <v>-0.463498975409836</v>
+      </c>
+      <c r="C15" s="2">
         <v>1900</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
         <v>1973</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>1.56600620673191</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>-4293</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
         <v>1974</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>-0.107265792166713</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>12404</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
         <v>1975</v>
       </c>
-      <c r="B18">
-        <v>4.1312005002084202</v>
-      </c>
-      <c r="C18">
+      <c r="B18" s="2">
+        <v>4.13120050020842</v>
+      </c>
+      <c r="C18" s="2">
         <v>-6082</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
         <v>1976</v>
       </c>
-      <c r="B19">
-        <v>-1.6116086841731101</v>
-      </c>
-      <c r="C19">
+      <c r="B19" s="2">
+        <v>-1.61160868417311</v>
+      </c>
+      <c r="C19" s="2">
         <v>-27246</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
         <v>1977</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>-1.40172671426199</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>-29763</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21">
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
         <v>1978</v>
       </c>
-      <c r="B21">
-        <v>-1.7326830881137301</v>
-      </c>
-      <c r="C21">
+      <c r="B21" s="2">
+        <v>-1.73268308811373</v>
+      </c>
+      <c r="C21" s="2">
         <v>-24565</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22">
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
         <v>1979</v>
       </c>
-      <c r="B22">
-        <v>-0.26895306859205698</v>
-      </c>
-      <c r="C22">
+      <c r="B22" s="2">
+        <v>-0.268953068592057</v>
+      </c>
+      <c r="C22" s="2">
         <v>-19407</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23">
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
         <v>1980</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>-2.19783950617283</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>-16172</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24">
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
         <v>1981</v>
       </c>
-      <c r="B24">
-        <v>-4.0127544447307297</v>
-      </c>
-      <c r="C24">
+      <c r="B24" s="2">
+        <v>-4.01275444473073</v>
+      </c>
+      <c r="C24" s="2">
         <v>-24156</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
         <v>1982</v>
       </c>
-      <c r="B25">
-        <v>-2.5997861877271702</v>
-      </c>
-      <c r="C25">
+      <c r="B25" s="2">
+        <v>-2.59978618772717</v>
+      </c>
+      <c r="C25" s="2">
         <v>-57767</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26">
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
         <v>1983</v>
       </c>
-      <c r="B26">
-        <v>-0.53363983855015895</v>
-      </c>
-      <c r="C26">
+      <c r="B26" s="2">
+        <v>-0.533639838550159</v>
+      </c>
+      <c r="C26" s="2">
         <v>-109072</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27">
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
         <v>1984</v>
       </c>
-      <c r="B27">
-        <v>1.6703158136069201</v>
-      </c>
-      <c r="C27">
+      <c r="B27" s="2">
+        <v>1.67031581360692</v>
+      </c>
+      <c r="C27" s="2">
         <v>-121880</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28">
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
         <v>1985</v>
       </c>
-      <c r="B28">
-        <v>-0.20483375904183301</v>
-      </c>
-      <c r="C28">
+      <c r="B28" s="2">
+        <v>-0.204833759041833</v>
+      </c>
+      <c r="C28" s="2">
         <v>-138538</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29">
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
         <v>1986</v>
       </c>
-      <c r="B29">
-        <v>-2.5183285644873901</v>
-      </c>
-      <c r="C29">
+      <c r="B29" s="2">
+        <v>-2.51832856448739</v>
+      </c>
+      <c r="C29" s="2">
         <v>-151684</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30">
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
         <v>1987</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
         <v>-1.3115844118902</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
         <v>-114566</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31">
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
         <v>1988</v>
       </c>
-      <c r="B31">
-        <v>-1.4633116512609801</v>
-      </c>
-      <c r="C31">
+      <c r="B31" s="2">
+        <v>-1.46331165126098</v>
+      </c>
+      <c r="C31" s="2">
         <v>-93141</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32">
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
         <v>1989</v>
       </c>
-      <c r="B32">
-        <v>-5.3018472906403904</v>
-      </c>
-      <c r="C32">
+      <c r="B32" s="2">
+        <v>-5.30184729064039</v>
+      </c>
+      <c r="C32" s="2">
         <v>-80864</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33">
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
         <v>1990</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="2">
         <v>0.139618104262689</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
         <v>-31135</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34">
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
         <v>1991</v>
       </c>
-      <c r="B34">
-        <v>-2.7014168006430799</v>
-      </c>
-      <c r="C34">
+      <c r="B34" s="2">
+        <v>-2.70141680064308</v>
+      </c>
+      <c r="C34" s="2">
         <v>-39212</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35">
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
         <v>1992</v>
       </c>
-      <c r="B35">
-        <v>-2.0914808799645601</v>
-      </c>
-      <c r="C35">
+      <c r="B35" s="2">
+        <v>-2.09148087996456</v>
+      </c>
+      <c r="C35" s="2">
         <v>-70311</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36">
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
         <v>1993</v>
       </c>
-      <c r="B36">
-        <v>0.56281957633308899</v>
-      </c>
-      <c r="C36">
+      <c r="B36" s="2">
+        <v>0.562819576333089</v>
+      </c>
+      <c r="C36" s="2">
         <v>-98493</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37">
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
         <v>1994</v>
       </c>
-      <c r="B37">
-        <v>-0.51012264894012904</v>
-      </c>
-      <c r="C37">
+      <c r="B37" s="2">
+        <v>-0.510122648940129</v>
+      </c>
+      <c r="C37" s="2">
         <v>-96384</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38">
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
         <v>1995</v>
       </c>
-      <c r="B38">
-        <v>8.8109617117514993</v>
-      </c>
-      <c r="C38">
+      <c r="B38" s="2">
+        <v>8.8109617117515</v>
+      </c>
+      <c r="C38" s="2">
         <v>-104065</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39">
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
         <v>1996</v>
       </c>
-      <c r="B39">
-        <v>-1.8013762649228899</v>
-      </c>
-      <c r="C39">
+      <c r="B39" s="2">
+        <v>-1.80137626492289</v>
+      </c>
+      <c r="C39" s="2">
         <v>-108273</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40">
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
         <v>1997</v>
       </c>
-      <c r="B40">
-        <v>-0.69697357864717802</v>
-      </c>
-      <c r="C40">
+      <c r="B40" s="2">
+        <v>-0.696973578647178</v>
+      </c>
+      <c r="C40" s="2">
         <v>-166140</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41">
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
         <v>1998</v>
       </c>
-      <c r="B41">
-        <v>-3.7903160018095301</v>
-      </c>
-      <c r="C41">
+      <c r="B41" s="2">
+        <v>-3.79031600180953</v>
+      </c>
+      <c r="C41" s="2">
         <v>-258617</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42">
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
         <v>1999</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="2">
         <v>-0.870808958960688</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="2">
         <v>-372517</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43">
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
         <v>2000</v>
       </c>
-      <c r="B43">
-        <v>-6.7555752139565497</v>
-      </c>
-      <c r="C43">
+      <c r="B43" s="2">
+        <v>-6.75557521395655</v>
+      </c>
+      <c r="C43" s="2">
         <v>-361511</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44">
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
         <v>2001</v>
       </c>
-      <c r="B44">
-        <v>-0.87985359245371997</v>
-      </c>
-      <c r="C44">
+      <c r="B44" s="2">
+        <v>-0.87985359245372</v>
+      </c>
+      <c r="C44" s="2">
         <v>-418955</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45">
+    <row r="45" spans="1:3">
+      <c r="A45" s="2">
         <v>2002</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="2">
         <v>2.2788206943742</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="2">
         <v>-493890</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46">
+    <row r="46" spans="1:3">
+      <c r="A46" s="2">
         <v>2003</v>
       </c>
-      <c r="B46">
-        <v>-1.6779359592055201</v>
-      </c>
-      <c r="C46">
+      <c r="B46" s="2">
+        <v>-1.67793595920552</v>
+      </c>
+      <c r="C46" s="2">
         <v>-609883</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47">
+    <row r="47" spans="1:3">
+      <c r="A47" s="2">
         <v>2004</v>
       </c>
-      <c r="B47">
-        <v>-0.10154451523100801</v>
-      </c>
-      <c r="C47">
+      <c r="B47" s="2">
+        <v>-0.101544515231008</v>
+      </c>
+      <c r="C47" s="2">
         <v>-714245</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48">
+    <row r="48" spans="1:3">
+      <c r="A48" s="2">
         <v>2005</v>
       </c>
-      <c r="B48">
-        <v>0.46447883924980199</v>
-      </c>
-      <c r="C48">
+      <c r="B48" s="2">
+        <v>0.464478839249802</v>
+      </c>
+      <c r="C48" s="2">
         <v>-761716</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49">
+    <row r="49" spans="1:3">
+      <c r="A49" s="2">
         <v>2006</v>
       </c>
-      <c r="B49">
-        <v>-1.4283636289658099</v>
-      </c>
-      <c r="C49">
+      <c r="B49" s="2">
+        <v>-1.42836362896581</v>
+      </c>
+      <c r="C49" s="2">
         <v>-705375</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50">
+    <row r="50" spans="1:3">
+      <c r="A50" s="2">
         <v>2007</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="2">
         <v>-10.1675056990881</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="2">
         <v>-708726</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51">
+    <row r="51" spans="1:3">
+      <c r="A51" s="2">
         <v>2008</v>
       </c>
-      <c r="B51">
-        <v>-1.7843921442669799</v>
-      </c>
-      <c r="C51">
+      <c r="B51" s="2">
+        <v>-1.78439214426698</v>
+      </c>
+      <c r="C51" s="2">
         <v>-383774</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52">
+    <row r="52" spans="1:3">
+      <c r="A52" s="2">
         <v>2009</v>
       </c>
-      <c r="B52">
-        <v>-0.59117507198900998</v>
-      </c>
-      <c r="C52">
+      <c r="B52" s="2">
+        <v>-0.59117507198901</v>
+      </c>
+      <c r="C52" s="2">
         <v>-494658</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53">
+    <row r="53" spans="1:3">
+      <c r="A53" s="2">
         <v>2010</v>
       </c>
-      <c r="B53">
-        <v>-1.5999903071032699</v>
-      </c>
-      <c r="C53">
+      <c r="B53" s="2">
+        <v>-1.59999030710327</v>
+      </c>
+      <c r="C53" s="2">
         <v>-548625</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54">
+    <row r="54" spans="1:3">
+      <c r="A54" s="2">
         <v>2011</v>
       </c>
-      <c r="B54">
-        <v>-0.14861335487345101</v>
-      </c>
-      <c r="C54">
+      <c r="B54" s="2">
+        <v>-0.148613354873451</v>
+      </c>
+      <c r="C54" s="2">
         <v>-536773</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
-        <v>0.14391822836800636</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="B4">
+        <v>0.143918228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1">
-        <v>2.0712456456585631E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="B5">
+        <v>0.020712456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1">
-        <v>1.5107399165186829E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="B6">
+        <v>0.00151074</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1">
-        <v>233155.48559223305</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B7">
+        <v>2.669941917</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="2:6">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="3" t="s">
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>7.689448306</v>
+      </c>
+      <c r="D12">
+        <v>7.689448306</v>
+      </c>
+      <c r="E12">
+        <v>1.078677337</v>
+      </c>
+      <c r="F12">
+        <v>0.303892767</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="B13">
+        <v>51</v>
+      </c>
+      <c r="C13">
+        <v>363.558082</v>
+      </c>
+      <c r="D13">
+        <v>7.128589843</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="B14">
+        <v>52</v>
+      </c>
+      <c r="C14">
+        <v>371.2475303</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1">
-        <v>58638496960.938965</v>
-      </c>
-      <c r="D12" s="1">
-        <v>58638496960.938965</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1.0786773366519771</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.30389276653371711</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>51</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2772435503549.2495</v>
-      </c>
-      <c r="D13" s="1">
-        <v>54361480461.749992</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
-        <v>52</v>
-      </c>
-      <c r="C14" s="2">
-        <v>2831074000510.1885</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="H16" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="I16" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="3" t="s">
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="1">
-        <v>-156776.4733958806</v>
-      </c>
-      <c r="C17" s="1">
-        <v>34815.969837884993</v>
-      </c>
-      <c r="D17" s="1">
-        <v>-4.5030046305153997</v>
-      </c>
-      <c r="E17" s="1">
-        <v>3.9188287791971797E-5</v>
-      </c>
-      <c r="F17" s="1">
-        <v>-226672.44939022415</v>
-      </c>
-      <c r="G17" s="1">
-        <v>-86880.497401537054</v>
-      </c>
-      <c r="H17" s="1">
-        <v>-226672.44939022415</v>
-      </c>
-      <c r="I17" s="1">
-        <v>-86880.497401537054</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="B17">
+        <v>-0.846702342</v>
+      </c>
+      <c r="C17">
+        <v>0.456173606</v>
+      </c>
+      <c r="D17">
+        <v>-1.856096738</v>
+      </c>
+      <c r="E17">
+        <v>0.06922171</v>
+      </c>
+      <c r="F17">
+        <v>-1.76250907</v>
+      </c>
+      <c r="G17">
+        <v>0.069104386</v>
+      </c>
+      <c r="H17">
+        <v>-1.76250907</v>
+      </c>
+      <c r="I17">
+        <v>0.069104386</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="2">
-        <v>12567.81063336901</v>
-      </c>
-      <c r="C18" s="2">
-        <v>12100.793540624518</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1.0385939228842003</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0.30389276653371322</v>
-      </c>
-      <c r="F18" s="2">
-        <v>-11725.546086731463</v>
-      </c>
-      <c r="G18" s="2">
-        <v>36861.167353469486</v>
-      </c>
-      <c r="H18" s="2">
-        <v>-11725.546086731463</v>
-      </c>
-      <c r="I18" s="2">
-        <v>36861.167353469486</v>
+      <c r="B18" s="1">
+        <v>1.64806e-6</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.58681e-6</v>
+      </c>
+      <c r="D18">
+        <v>1.038593923</v>
+      </c>
+      <c r="E18">
+        <v>0.303892767</v>
+      </c>
+      <c r="F18" s="1">
+        <v>-1.53761e-6</v>
+      </c>
+      <c r="G18" s="1">
+        <v>4.83372e-6</v>
+      </c>
+      <c r="H18" s="1">
+        <v>-1.53761e-6</v>
+      </c>
+      <c r="I18" s="1">
+        <v>4.83372e-6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>